--- a/StructureDefinition-PregnancyOutcome.xlsx
+++ b/StructureDefinition-PregnancyOutcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T10:57:51+00:00</t>
+    <t>2026-01-15T12:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PregnancyOutcome.xlsx
+++ b/StructureDefinition-PregnancyOutcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:19:16+00:00</t>
+    <t>2026-01-15T13:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PregnancyOutcome.xlsx
+++ b/StructureDefinition-PregnancyOutcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:05:29+00:00</t>
+    <t>2026-01-15T13:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,7 +241,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancEnd1PregnancyOutcome</t>
+    <t>PregnancyOutcome.pregnancyOutcome</t>
   </si>
   <si>
     <t>1</t>
@@ -378,7 +378,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutArvRxForMothersByType</t>
+    <t>PregnancyOutcome.arvRxForMothersByType</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -392,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutObstProlgLabour</t>
+    <t>PregnancyOutcome.obstProlgLabour</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -406,7 +406,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutHysterectomy</t>
+    <t>PregnancyOutcome.hysterectomy</t>
   </si>
   <si>
     <t xml:space="preserve">ANC - ANC.BD Hysterectomy </t>
@@ -419,7 +419,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutManaged</t>
+    <t>PregnancyOutcome.managed</t>
   </si>
   <si>
     <t>ANC - ANC.BD Managed</t>
@@ -429,7 +429,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutPromSepsis</t>
+    <t>PregnancyOutcome.promSepsis</t>
   </si>
   <si>
     <t>ANC - ANC.BD PROM/Sepsis</t>
@@ -439,7 +439,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutReferred</t>
+    <t>PregnancyOutcome.referred</t>
   </si>
   <si>
     <t>ANC - ANC.BD Referred</t>
@@ -449,7 +449,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutRepaired</t>
+    <t>PregnancyOutcome.repaired</t>
   </si>
   <si>
     <t>ANC - ANC.BD Repaired</t>
@@ -459,7 +459,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.bdOtherReasonForPregnancyOutcome</t>
+    <t>PregnancyOutcome.otherReasonForPregnancyOutcome</t>
   </si>
   <si>
     <t>ANC - AND.BD-Other Reason for Pregnancy Outcome</t>
@@ -472,7 +472,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutEclampsiaPostpartumHemorrhage</t>
+    <t>PregnancyOutcome.eclampsiaPostpartumHemorrhage</t>
   </si>
   <si>
     <t xml:space="preserve">ANC - ANC.BD Eclampsia postpartum hemorrhage </t>
@@ -485,7 +485,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutRupturedUx</t>
+    <t>PregnancyOutcome.rupturedUx</t>
   </si>
   <si>
     <t>ANC - ANC.BD Ruptured Ux</t>
@@ -495,7 +495,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.ancOutEclampsiaAntepartumHemorrhage</t>
+    <t>PregnancyOutcome.eclampsiaAntepartumHemorrhage</t>
   </si>
   <si>
     <t xml:space="preserve">ANC - ANC.BD Eclampsia antepartum hemorrhage </t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t>PregnancyOutcome.arvPxForNewBortn</t>
+    <t>PregnancyOutcome.pxForNewBortn</t>
   </si>
   <si>
     <t>ANC - ANC.BD ARV Px for New Born (By type, HIV)</t>
@@ -983,8 +983,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.81640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.81640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1014,7 +1014,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="49.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.85546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
